--- a/data/trans_dic/P55$pareja-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4084834597482629</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3206300617925621</v>
+        <v>0.3206300617925622</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1635237614500878</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3331121024559334</v>
+        <v>0.3369709592546936</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2435622542673055</v>
+        <v>0.2342633065907287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2298230991541322</v>
+        <v>0.2511534494210843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2242577378775298</v>
+        <v>0.2236641184269941</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07174511337798041</v>
+        <v>0.07385020561172873</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1267854898150028</v>
+        <v>0.1366641146105043</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1191132479774707</v>
+        <v>0.1203272332427382</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06412229866803597</v>
+        <v>0.065193200338337</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2187867557360793</v>
+        <v>0.2200944104514534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2071670918920503</v>
+        <v>0.2013780855953179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1924415613334463</v>
+        <v>0.1891166175650714</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1403260022413616</v>
+        <v>0.1417405586674429</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6799293480878285</v>
+        <v>0.6540383110887892</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6129036192793776</v>
+        <v>0.6133666788021603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5693196608340065</v>
+        <v>0.5798740204203265</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4320758774419294</v>
+        <v>0.4262799641240942</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3001775762039308</v>
+        <v>0.3037594096409553</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3578460209127421</v>
+        <v>0.3539124654349359</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3513903559649352</v>
+        <v>0.3416815911044189</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1532985945131873</v>
+        <v>0.1586916162824493</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.430625908572326</v>
+        <v>0.4198139698968673</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4022759375284581</v>
+        <v>0.3983558190261319</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.380470910953282</v>
+        <v>0.3808221471440172</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2434386716734551</v>
+        <v>0.2448920059702423</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4327777220506315</v>
+        <v>0.4337535700702951</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2169369971690098</v>
+        <v>0.2058539192251402</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2180994764046487</v>
+        <v>0.2181870253593389</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2060000811328838</v>
+        <v>0.2037144883083919</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04822339310212401</v>
+        <v>0.0464672756715182</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07264225775945043</v>
+        <v>0.07450443403763436</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08623506534501632</v>
+        <v>0.08723089061255086</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1237608964966582</v>
+        <v>0.127377831160536</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2171674011009224</v>
+        <v>0.2206740364384476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1399000417618078</v>
+        <v>0.1321247160255851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1558393699819039</v>
+        <v>0.1576192613069714</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1673100993079633</v>
+        <v>0.1681557282289565</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7026998976198094</v>
+        <v>0.7176332752827197</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5393418827444273</v>
+        <v>0.5218432931635359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5074674749674303</v>
+        <v>0.5048042777505474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4388149865566869</v>
+        <v>0.4371181866568318</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2030548753557736</v>
+        <v>0.1904446926827083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2315990228436251</v>
+        <v>0.2262252233220749</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2852782826863495</v>
+        <v>0.2883719048986464</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2414264343951662</v>
+        <v>0.2500343132475273</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3931143353349286</v>
+        <v>0.3913764621269411</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2972893087363452</v>
+        <v>0.2897111751987708</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3212371703581399</v>
+        <v>0.3260288286914709</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2827266961285572</v>
+        <v>0.2801163435240779</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1496708511258121</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09831609050674338</v>
+        <v>0.09831609050674336</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1649667475408469</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1654085677910675</v>
+        <v>0.1780829034786317</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.151593761862933</v>
+        <v>0.1703682692232119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3525274563899813</v>
+        <v>0.3486948911262467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2786422272617333</v>
+        <v>0.2789669688162995</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01902015148999418</v>
+        <v>0.01900132852760734</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07987142834625147</v>
+        <v>0.08120017554480274</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06396205194546273</v>
+        <v>0.06572138993479043</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05289756903881052</v>
+        <v>0.04384468501701716</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08971828383136242</v>
+        <v>0.09160283625158444</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1416243909758913</v>
+        <v>0.1326796073483047</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1748972109552274</v>
+        <v>0.1774169085069403</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1356524949220455</v>
+        <v>0.1408983846808979</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5652018727107989</v>
+        <v>0.5862937938825861</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5558147735331626</v>
+        <v>0.5813357436646257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7163822714411368</v>
+        <v>0.7356102109484208</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5891999311246975</v>
+        <v>0.5985684045359501</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1798097930690893</v>
+        <v>0.1858417921212036</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2785989111307919</v>
+        <v>0.2948880045715071</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2780043693146074</v>
+        <v>0.267777672786597</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1667610303625599</v>
+        <v>0.1576393014235422</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2708394441325801</v>
+        <v>0.2683130802550741</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.345997665468806</v>
+        <v>0.3289379342471462</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3748135657628835</v>
+        <v>0.4031834977363771</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.268949390443076</v>
+        <v>0.2888056316978338</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5149869082511439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4273629906817405</v>
+        <v>0.4273629906817406</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09489402086591862</v>
@@ -1105,7 +1105,7 @@
         <v>0.25517271185644</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.19763979989822</v>
+        <v>0.1976397998982199</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2205102312695199</v>
+        <v>0.2223944323938932</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.294776742157785</v>
+        <v>0.2861917261191715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3284105834310242</v>
+        <v>0.3402033749013987</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.299728274285416</v>
+        <v>0.30767759819247</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0430546468002752</v>
+        <v>0.04111971205884412</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06270502824804688</v>
+        <v>0.05408781949726602</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08219454812838975</v>
+        <v>0.08354412611845585</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06764241933889992</v>
+        <v>0.0681162768914962</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1084025546134339</v>
+        <v>0.1005678829388364</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1597176397309757</v>
+        <v>0.1589124925156695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1820965286336892</v>
+        <v>0.1763518033378191</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1484627596510763</v>
+        <v>0.1536397548065944</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5891744571557783</v>
+        <v>0.5938381265580643</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6334459056914492</v>
+        <v>0.6338082290701607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6873471237750759</v>
+        <v>0.6923856699840233</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5547997724516279</v>
+        <v>0.5574535769498395</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1857775538841546</v>
+        <v>0.1848334890498217</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2149903635986444</v>
+        <v>0.20391372100721</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2715370509058794</v>
+        <v>0.2730364205666837</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1535035168732631</v>
+        <v>0.1557852592527652</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2467646718083415</v>
+        <v>0.2454501372318057</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3187292790019765</v>
+        <v>0.3168445067365734</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.365040647023067</v>
+        <v>0.352655981866393</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2484469612257301</v>
+        <v>0.2514166889985171</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4408665818086169</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.365151380960757</v>
+        <v>0.3651513809607569</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1079269962717578</v>
@@ -1229,7 +1229,7 @@
         <v>0.1726305386341195</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.123685543040511</v>
+        <v>0.1236855430405111</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.241977515585097</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3990990758796476</v>
+        <v>0.3927919396533059</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3103692095760891</v>
+        <v>0.3089694678916448</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3655085366249783</v>
+        <v>0.3668498396276057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3045718989463566</v>
+        <v>0.3122270312119403</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07467356715150032</v>
+        <v>0.07314970349650399</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1134229944808263</v>
+        <v>0.1136438930899444</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1211395495811254</v>
+        <v>0.1278998762430598</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09964488477208756</v>
+        <v>0.1000966237408437</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2010695570804684</v>
+        <v>0.1994395537853819</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1978569495999382</v>
+        <v>0.194036284195201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2129083481841398</v>
+        <v>0.2094274602335464</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1747921471458637</v>
+        <v>0.1762399383945872</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.572002725873816</v>
+        <v>0.5845679426895661</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4840744276628496</v>
+        <v>0.4902804845628937</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5241453321262012</v>
+        <v>0.5351558344725688</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.426903613844181</v>
+        <v>0.4240163811490971</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1565721811640426</v>
+        <v>0.1534534152063914</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2044377099238096</v>
+        <v>0.2009649326809232</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2238356991038389</v>
+        <v>0.2270185971844159</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1511605828903231</v>
+        <v>0.1529192559456574</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2834284296269888</v>
+        <v>0.2890948580625488</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2831162736561953</v>
+        <v>0.2809535389459317</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3103278473538845</v>
+        <v>0.3070816339598057</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.228874395752197</v>
+        <v>0.230601547911895</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11284</v>
+        <v>11415</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7925</v>
+        <v>7622</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6384</v>
+        <v>6977</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11885</v>
+        <v>11853</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3213</v>
+        <v>3307</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7734</v>
+        <v>8337</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7163</v>
+        <v>7236</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5442</v>
+        <v>5533</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17210</v>
+        <v>17313</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19378</v>
+        <v>18837</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16919</v>
+        <v>16626</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>19347</v>
+        <v>19542</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23033</v>
+        <v>22156</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19942</v>
+        <v>19957</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15815</v>
+        <v>16108</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22898</v>
+        <v>22591</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13444</v>
+        <v>13604</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21829</v>
+        <v>21589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21132</v>
+        <v>20548</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13011</v>
+        <v>13469</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33873</v>
+        <v>33023</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>37628</v>
+        <v>37262</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>33449</v>
+        <v>33480</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33563</v>
+        <v>33764</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20783</v>
+        <v>20830</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9904</v>
+        <v>9398</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8922</v>
+        <v>8926</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8622</v>
+        <v>8526</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3264</v>
+        <v>3145</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6417</v>
+        <v>6582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6627</v>
+        <v>6703</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11712</v>
+        <v>12055</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>25127</v>
+        <v>25532</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>18746</v>
+        <v>17704</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18351</v>
+        <v>18560</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>22836</v>
+        <v>22952</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33745</v>
+        <v>34462</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24624</v>
+        <v>23825</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20760</v>
+        <v>20651</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18367</v>
+        <v>18296</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13743</v>
+        <v>12889</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20459</v>
+        <v>19985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21922</v>
+        <v>22160</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22848</v>
+        <v>23662</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>45484</v>
+        <v>45283</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>39836</v>
+        <v>38820</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>37827</v>
+        <v>38391</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>38590</v>
+        <v>38234</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3569</v>
+        <v>3842</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4236</v>
+        <v>4760</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8201</v>
+        <v>8112</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8278</v>
+        <v>8287</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4147</v>
+        <v>4216</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3299</v>
+        <v>3389</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3433</v>
+        <v>2845</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6104</v>
+        <v>6233</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11310</v>
+        <v>10595</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13088</v>
+        <v>13277</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12833</v>
+        <v>13330</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12195</v>
+        <v>12650</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15529</v>
+        <v>16243</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16665</v>
+        <v>17113</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17503</v>
+        <v>17782</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8355</v>
+        <v>8635</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14464</v>
+        <v>15309</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14337</v>
+        <v>13809</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10822</v>
+        <v>10230</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18428</v>
+        <v>18256</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27630</v>
+        <v>26268</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>28048</v>
+        <v>30171</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>25444</v>
+        <v>27322</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5095</v>
+        <v>5139</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11801</v>
+        <v>11457</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9691</v>
+        <v>10039</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13357</v>
+        <v>13711</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3100</v>
+        <v>2960</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4908</v>
+        <v>4234</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6478</v>
+        <v>6584</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7632</v>
+        <v>7686</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10309</v>
+        <v>9564</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>18896</v>
+        <v>18800</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>19725</v>
+        <v>19102</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>23367</v>
+        <v>24182</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13613</v>
+        <v>13721</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25359</v>
+        <v>25374</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20282</v>
+        <v>20431</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24724</v>
+        <v>24842</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>13374</v>
+        <v>13307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16828</v>
+        <v>15961</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21400</v>
+        <v>21518</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17320</v>
+        <v>17578</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23467</v>
+        <v>23342</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>37708</v>
+        <v>37485</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>39541</v>
+        <v>38199</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>39104</v>
+        <v>39572</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>50517</v>
+        <v>49719</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45366</v>
+        <v>45161</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>44394</v>
+        <v>44557</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>51510</v>
+        <v>52804</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>17244</v>
+        <v>16892</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31705</v>
+        <v>31767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>32388</v>
+        <v>34196</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>35597</v>
+        <v>35759</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>71883</v>
+        <v>71300</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>84227</v>
+        <v>82601</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>82783</v>
+        <v>81430</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>92004</v>
+        <v>92766</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>72403</v>
+        <v>73993</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>70756</v>
+        <v>71663</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>63662</v>
+        <v>64999</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>72198</v>
+        <v>71710</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36156</v>
+        <v>35436</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>57146</v>
+        <v>56176</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>59845</v>
+        <v>60696</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>54001</v>
+        <v>54629</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>101326</v>
+        <v>103352</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>120522</v>
+        <v>119601</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>120662</v>
+        <v>119400</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>120471</v>
+        <v>121380</v>
       </c>
     </row>
     <row r="24">
